--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -830,42 +830,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.7265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -260,7 +260,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -270,7 +270,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -309,10 +309,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -368,14 +364,10 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4B/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -414,7 +406,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/valueset-research-study-party-role.html</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/research-study-party-role-vs</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -493,7 +485,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -855,7 +847,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.0625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.33984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1284,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1292,13 +1284,13 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>20</v>
@@ -1311,7 +1303,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>20</v>
@@ -1323,7 +1315,7 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>90</v>
@@ -1389,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1397,10 +1389,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1500,10 +1492,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1595,7 +1587,7 @@
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
@@ -1603,10 +1595,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1629,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1646,7 +1638,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>20</v>
@@ -1688,30 +1680,30 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1734,13 +1726,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1791,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1803,21 +1795,21 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -1830,7 +1822,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>20</v>
@@ -1842,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>90</v>
@@ -1908,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -1916,10 +1908,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2019,10 +2011,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2114,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -2122,10 +2114,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2148,16 +2140,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2165,7 +2157,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -2207,30 +2199,30 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2253,13 +2245,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2286,11 +2278,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2308,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2320,21 +2312,21 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -2359,7 +2351,7 @@
         <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>90</v>
@@ -2425,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -2433,10 +2425,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2536,10 +2528,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2631,7 +2623,7 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -2639,10 +2631,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2665,16 +2657,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2682,7 +2674,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>20</v>
@@ -2724,30 +2716,30 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2770,13 +2762,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2827,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2839,21 +2831,21 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
@@ -2878,7 +2870,7 @@
         <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>90</v>
@@ -2944,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -2952,10 +2944,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3055,10 +3047,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3150,7 +3142,7 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
@@ -3158,10 +3150,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3184,16 +3176,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3201,7 +3193,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>20</v>
@@ -3243,30 +3235,30 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3289,13 +3281,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3322,11 +3314,11 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -3344,7 +3336,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3356,21 +3348,21 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
@@ -3383,7 +3375,7 @@
         <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -3395,7 +3387,7 @@
         <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>90</v>
@@ -3461,7 +3453,7 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
@@ -3469,10 +3461,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3572,10 +3564,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3667,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
@@ -3675,10 +3667,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3701,16 +3693,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3718,7 +3710,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -3760,30 +3752,30 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3806,13 +3798,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3863,7 +3855,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -3875,18 +3867,18 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3909,16 +3901,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -3968,30 +3960,30 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4014,13 +4006,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4071,7 +4063,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4083,10 +4075,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
